--- a/WhatACart2/src/test/resources/TestData/TestData.xlsx
+++ b/WhatACart2/src/test/resources/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20406"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B196DB-63C8-47AE-B18C-9BAC190F6FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C8DBAB-AE75-4FA9-8370-7FA29618B605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,7 +284,7 @@
     <t>pragati</t>
   </si>
   <si>
-    <t>qwerty@1</t>
+    <t>Hello123@</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WhatACart2/src/test/resources/TestData/TestData.xlsx
+++ b/WhatACart2/src/test/resources/TestData/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20406"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C8DBAB-AE75-4FA9-8370-7FA29618B605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F85A12F-5C0D-46E8-8CAC-6781159463FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>TestCases</t>
   </si>
@@ -185,99 +185,30 @@
     <t>qty</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
     <t>LastName</t>
   </si>
   <si>
-    <t>SetPassword</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>Zipcode</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
     <t>MobilePhone</t>
   </si>
   <si>
-    <t>Mrs</t>
-  </si>
-  <si>
-    <t>hgsdtyf</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>EDFG123</t>
-  </si>
-  <si>
-    <t>San</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
     <t>91436</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>8489875678</t>
   </si>
   <si>
-    <t>TestUser</t>
-  </si>
-  <si>
-    <t>UserTest</t>
-  </si>
-  <si>
-    <t>ABCDEF</t>
-  </si>
-  <si>
-    <t>newtest1@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest2@gmail.com</t>
-  </si>
-  <si>
-    <t>newtest3@gmail.com</t>
-  </si>
-  <si>
     <t>mobile</t>
   </si>
   <si>
@@ -285,13 +216,64 @@
   </si>
   <si>
     <t>Hello123@</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>pranali</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>PassWord</t>
+  </si>
+  <si>
+    <t>ConfirmPassWord</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Postal_Code</t>
+  </si>
+  <si>
+    <t>Asia/Kolkata</t>
+  </si>
+  <si>
+    <t>asdfg@1</t>
+  </si>
+  <si>
+    <t>Pranali</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>ABCDEF@gmail.com</t>
+  </si>
+  <si>
+    <t>Sangli</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Maharastra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +295,19 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF221A15"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -414,7 +409,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -446,6 +441,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1047,7 +1046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1070,10 +1069,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1105,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="B2" s="7">
         <v>2</v>
@@ -1134,7 +1133,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1144,225 +1143,125 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="N1" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>59</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{5EB7E5E8-3472-4D1F-9FCA-D6699534535A}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{FB73D568-C44D-40CA-8B17-7317EB822625}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{AFD86D4A-1223-442F-BD48-5CC1F2736BC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>